--- a/SprintMobile/Data/Book1.xlsx
+++ b/SprintMobile/Data/Book1.xlsx
@@ -19,15 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Devices</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Package</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Prepaid</t>
+  </si>
+  <si>
+    <t>Postpid</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>Galaxi Note</t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessories </t>
   </si>
 </sst>
 </file>
@@ -345,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -363,12 +372,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
